--- a/proj1/medicoes/ex2/dados.xlsx
+++ b/proj1/medicoes/ex2/dados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,15 +441,10 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>t2-t1 (sec)</t>
+          <t>stride</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t># accesses a[i]</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
         <is>
           <t># mean access time (nanosec)</t>
         </is>
@@ -460,153 +455,2056 @@
         <v>4096</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000944</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>409600</v>
-      </c>
-      <c r="D2" t="n">
         <v>2.303975</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00193</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>819200</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.355804</v>
+        <v>2.292937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16384</v>
+        <v>4096</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003844</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1638400</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.346215</v>
+        <v>2.282275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32768</v>
+        <v>4096</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00753</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>3276800</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.29791</v>
+        <v>2.213516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65536</v>
+        <v>4096</v>
       </c>
       <c r="B6" t="n">
-        <v>0.013434</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>6553600</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.049799</v>
+        <v>2.26356</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131072</v>
+        <v>4096</v>
       </c>
       <c r="B7" t="n">
-        <v>0.027894</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>13107200</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.128151</v>
+        <v>2.243264</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>262144</v>
+        <v>4096</v>
       </c>
       <c r="B8" t="n">
-        <v>0.055757</v>
+        <v>64</v>
       </c>
       <c r="C8" t="n">
-        <v>26214400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.126948</v>
+        <v>2.116028</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>524288</v>
+        <v>4096</v>
       </c>
       <c r="B9" t="n">
-        <v>0.107776</v>
+        <v>128</v>
       </c>
       <c r="C9" t="n">
-        <v>52428800</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.055658</v>
+        <v>2.057964</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1048576</v>
+        <v>4096</v>
       </c>
       <c r="B10" t="n">
-        <v>0.220015</v>
+        <v>256</v>
       </c>
       <c r="C10" t="n">
-        <v>104857600</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.098228</v>
+        <v>2.058596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2097152</v>
+        <v>4096</v>
       </c>
       <c r="B11" t="n">
-        <v>0.42433</v>
+        <v>512</v>
       </c>
       <c r="C11" t="n">
-        <v>209715200</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.023361</v>
+        <v>2.011638</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>4096</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.946848</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4096</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.964175</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>8192</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.355804</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8192</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.390758</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8192</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.309319</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8192</v>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.250304</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8192</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.271724</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8192</v>
+      </c>
+      <c r="B19" t="n">
+        <v>32</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.271274</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8192</v>
+      </c>
+      <c r="B20" t="n">
+        <v>64</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.255378</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8192</v>
+      </c>
+      <c r="B21" t="n">
+        <v>128</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.110214</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8192</v>
+      </c>
+      <c r="B22" t="n">
+        <v>256</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.076398</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8192</v>
+      </c>
+      <c r="B23" t="n">
+        <v>512</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.104333</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8192</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.042471</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8192</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.101128</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8192</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4096</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.157266</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.346215</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.33088</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.294039</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.236417</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B31" t="n">
+        <v>16</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.340229</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B32" t="n">
+        <v>32</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.336578</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B33" t="n">
+        <v>64</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.263567</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B34" t="n">
+        <v>128</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.249741</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B35" t="n">
+        <v>256</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.111666</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B36" t="n">
+        <v>512</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.051452</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.067792</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.140769</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4096</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.229913</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>16384</v>
+      </c>
+      <c r="B40" t="n">
+        <v>8192</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.131833</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.29791</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.359925</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.285284</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B44" t="n">
+        <v>8</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.206606</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B45" t="n">
+        <v>16</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.158648</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B46" t="n">
+        <v>32</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.155615</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B47" t="n">
+        <v>64</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.009637</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B48" t="n">
+        <v>128</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.256003</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B49" t="n">
+        <v>256</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.275895</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B50" t="n">
+        <v>512</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2.112919</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.0457</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.097688</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4096</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.242935</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B54" t="n">
+        <v>8192</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.227779</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>32768</v>
+      </c>
+      <c r="B55" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.131752</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.049799</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.945273</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.241512</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B59" t="n">
+        <v>8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.276144</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B60" t="n">
+        <v>16</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.211084</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.127535</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B62" t="n">
+        <v>64</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.863736</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B63" t="n">
+        <v>128</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.878311</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B64" t="n">
+        <v>256</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.897471</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B65" t="n">
+        <v>512</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.927668</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.849837</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C67" t="n">
+        <v>5.653839</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B68" t="n">
+        <v>4096</v>
+      </c>
+      <c r="C68" t="n">
+        <v>5.014972</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B69" t="n">
+        <v>8192</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.147222</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B70" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.12232</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>65536</v>
+      </c>
+      <c r="B71" t="n">
+        <v>32768</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2.031891</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.128151</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.911708</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.176534</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B75" t="n">
+        <v>8</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.238511</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B76" t="n">
+        <v>16</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.19209</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B77" t="n">
+        <v>32</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.216945</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B78" t="n">
+        <v>64</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.903805</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B79" t="n">
+        <v>128</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.866518</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B80" t="n">
+        <v>256</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.879516</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B81" t="n">
+        <v>512</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.904238</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.908264</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C83" t="n">
+        <v>5.498377</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4096</v>
+      </c>
+      <c r="C84" t="n">
+        <v>8.032653</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B85" t="n">
+        <v>8192</v>
+      </c>
+      <c r="C85" t="n">
+        <v>7.944299</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B86" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.151609</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B87" t="n">
+        <v>32768</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.136037</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>131072</v>
+      </c>
+      <c r="B88" t="n">
+        <v>65536</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.045617</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.126948</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.974961</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.266213</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B92" t="n">
+        <v>8</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.297332</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B93" t="n">
+        <v>16</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.280649</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B94" t="n">
+        <v>32</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.173276</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B95" t="n">
+        <v>64</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.095514</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B96" t="n">
+        <v>128</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.271833</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B97" t="n">
+        <v>256</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.565652</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B98" t="n">
+        <v>512</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.663954</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.790165</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C100" t="n">
+        <v>5.704611</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4096</v>
+      </c>
+      <c r="C101" t="n">
+        <v>8.574621</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B102" t="n">
+        <v>8192</v>
+      </c>
+      <c r="C102" t="n">
+        <v>8.17435</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B103" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C103" t="n">
+        <v>4.948299</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B104" t="n">
+        <v>32768</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.146488</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B105" t="n">
+        <v>65536</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.149362</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>262144</v>
+      </c>
+      <c r="B106" t="n">
+        <v>131072</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.055398</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.055658</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.935182</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.148521</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B110" t="n">
+        <v>8</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.157649</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B111" t="n">
+        <v>16</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2.134558</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B112" t="n">
+        <v>32</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.060615</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B113" t="n">
+        <v>64</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2.053153</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B114" t="n">
+        <v>128</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.428682</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B115" t="n">
+        <v>256</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.945493</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B116" t="n">
+        <v>512</v>
+      </c>
+      <c r="C116" t="n">
+        <v>3.042265</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C117" t="n">
+        <v>3.12954</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C118" t="n">
+        <v>5.605869</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4096</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9.058125</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B120" t="n">
+        <v>8192</v>
+      </c>
+      <c r="C120" t="n">
+        <v>8.700938000000001</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B121" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9.249527</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B122" t="n">
+        <v>32768</v>
+      </c>
+      <c r="C122" t="n">
+        <v>6.342621</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B123" t="n">
+        <v>65536</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.343091</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B124" t="n">
+        <v>131072</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.232632</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>524288</v>
+      </c>
+      <c r="B125" t="n">
+        <v>262144</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.121898</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.098228</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.919232</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.286117</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B129" t="n">
+        <v>8</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2.378402</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B130" t="n">
+        <v>16</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.354749</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B131" t="n">
+        <v>32</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.240821</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B132" t="n">
+        <v>64</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.177355</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B133" t="n">
+        <v>128</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.553319</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B134" t="n">
+        <v>256</v>
+      </c>
+      <c r="C134" t="n">
+        <v>3.268217</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B135" t="n">
+        <v>512</v>
+      </c>
+      <c r="C135" t="n">
+        <v>3.442757</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C136" t="n">
+        <v>3.465134</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C137" t="n">
+        <v>3.613728</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4096</v>
+      </c>
+      <c r="C138" t="n">
+        <v>9.0579</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B139" t="n">
+        <v>8192</v>
+      </c>
+      <c r="C139" t="n">
+        <v>8.496717</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B140" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C140" t="n">
+        <v>8.535394</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B141" t="n">
+        <v>32768</v>
+      </c>
+      <c r="C141" t="n">
+        <v>9.341934999999999</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B142" t="n">
+        <v>65536</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5.518656</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B143" t="n">
+        <v>131072</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.287168</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B144" t="n">
+        <v>262144</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.130354</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="B145" t="n">
+        <v>524288</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.040863</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.023361</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.991149</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.31496</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B149" t="n">
+        <v>8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.174198</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B150" t="n">
+        <v>16</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.153134</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B151" t="n">
+        <v>32</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.049564</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B152" t="n">
+        <v>64</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2.107827</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>128</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2.510184</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>256</v>
+      </c>
+      <c r="C154" t="n">
+        <v>3.12194</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B155" t="n">
+        <v>512</v>
+      </c>
+      <c r="C155" t="n">
+        <v>3.274918</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C156" t="n">
+        <v>3.33776</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C157" t="n">
+        <v>3.033555</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4096</v>
+      </c>
+      <c r="C158" t="n">
+        <v>8.851238</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B159" t="n">
+        <v>8192</v>
+      </c>
+      <c r="C159" t="n">
+        <v>8.546977999999999</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B160" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C160" t="n">
+        <v>8.677856</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B161" t="n">
+        <v>32768</v>
+      </c>
+      <c r="C161" t="n">
+        <v>8.620107000000001</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B162" t="n">
+        <v>65536</v>
+      </c>
+      <c r="C162" t="n">
+        <v>8.537827999999999</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B163" t="n">
+        <v>131072</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5.505633</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B164" t="n">
+        <v>262144</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2.292258</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B165" t="n">
+        <v>524288</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.125365</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2.036164</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
         <v>4194304</v>
       </c>
-      <c r="B12" t="n">
-        <v>0.861461</v>
-      </c>
-      <c r="C12" t="n">
-        <v>419430400</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
         <v>2.053883</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.976642</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.158733</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B170" t="n">
+        <v>8</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2.172584</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B171" t="n">
+        <v>16</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2.137347</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B172" t="n">
+        <v>32</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2.070555</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B173" t="n">
+        <v>64</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.117674</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B174" t="n">
+        <v>128</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2.581221</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B175" t="n">
+        <v>256</v>
+      </c>
+      <c r="C175" t="n">
+        <v>3.221275</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B176" t="n">
+        <v>512</v>
+      </c>
+      <c r="C176" t="n">
+        <v>3.402379</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C177" t="n">
+        <v>3.54016</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2048</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3.304043</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4096</v>
+      </c>
+      <c r="C179" t="n">
+        <v>8.849459</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B180" t="n">
+        <v>8192</v>
+      </c>
+      <c r="C180" t="n">
+        <v>8.585191999999999</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B181" t="n">
+        <v>16384</v>
+      </c>
+      <c r="C181" t="n">
+        <v>8.667612999999999</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B182" t="n">
+        <v>32768</v>
+      </c>
+      <c r="C182" t="n">
+        <v>8.831166</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B183" t="n">
+        <v>65536</v>
+      </c>
+      <c r="C183" t="n">
+        <v>8.564750999999999</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B184" t="n">
+        <v>131072</v>
+      </c>
+      <c r="C184" t="n">
+        <v>8.507839000000001</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B185" t="n">
+        <v>262144</v>
+      </c>
+      <c r="C185" t="n">
+        <v>7.800464</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B186" t="n">
+        <v>524288</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.287784</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1048576</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.129509</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>4194304</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2097152</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.043435</v>
       </c>
     </row>
   </sheetData>
